--- a/documents/image-regester.xlsx
+++ b/documents/image-regester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Diploma\web-design\WD2\abc-optical\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD9FEFF-B509-45A5-811E-D22C24880B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD04CD-D538-446C-8FA7-FC813A1E6A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23790" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{BBD52AFF-ED87-4C79-9BAE-18D4C78E2138}"/>
+    <workbookView xWindow="2190" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{BBD52AFF-ED87-4C79-9BAE-18D4C78E2138}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Original File Name</t>
   </si>
@@ -103,6 +103,66 @@
   </si>
   <si>
     <t>pexels-ashutosh-sonwani-1479724</t>
+  </si>
+  <si>
+    <t>pexels-masha-raymers-2726111</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/shallow-focus-photo-of-woman-in-gray-white-and-brown-striped-button-up-shirt-2726111/</t>
+  </si>
+  <si>
+    <t>Masha Raymers</t>
+  </si>
+  <si>
+    <t>2624px x 3936px</t>
+  </si>
+  <si>
+    <t>9.66mb</t>
+  </si>
+  <si>
+    <t>Edu Carvalho</t>
+  </si>
+  <si>
+    <t>pexels-edu-carvalho-2050994</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/woman-standing-near-yellow-petaled-flower-2050994/</t>
+  </si>
+  <si>
+    <t>3648px x 5472px</t>
+  </si>
+  <si>
+    <t>8.32mb</t>
+  </si>
+  <si>
+    <t>Kelly Lacy</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/man-in-black-jacket-wearing-eyeglasses-3812011/</t>
+  </si>
+  <si>
+    <t>3024px x 4032px</t>
+  </si>
+  <si>
+    <t>1.44mb</t>
+  </si>
+  <si>
+    <t>pexels-kelly-lacy-3812011</t>
+  </si>
+  <si>
+    <t>pexels-anna-shvets-5257222</t>
+  </si>
+  <si>
+    <t>Anna Shvets</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/fashion-people-woman-relaxation-5257222/</t>
+  </si>
+  <si>
+    <t>4160px x 6240px</t>
+  </si>
+  <si>
+    <t>12.3mb</t>
   </si>
 </sst>
 </file>
@@ -563,7 +623,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,15 +735,33 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1"/>
       <c r="L3" s="2"/>
@@ -694,15 +772,33 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
@@ -713,15 +809,33 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
@@ -732,15 +846,33 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>

--- a/documents/image-regester.xlsx
+++ b/documents/image-regester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Diploma\web-design\WD2\abc-optical\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD04CD-D538-446C-8FA7-FC813A1E6A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4D4831-86CC-4805-9AF9-C78BEF2317FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{BBD52AFF-ED87-4C79-9BAE-18D4C78E2138}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>Original File Name</t>
   </si>
@@ -163,6 +163,132 @@
   </si>
   <si>
     <t>12.3mb</t>
+  </si>
+  <si>
+    <t>Creative Commons</t>
+  </si>
+  <si>
+    <t>CC BY</t>
+  </si>
+  <si>
+    <t>https://editor.freelogodesign.org/en/logo/edit/c891585d1a7b48f0a207b1812b5cbec6?template=21925186&amp;category=1&amp;companyName=abc%20optical</t>
+  </si>
+  <si>
+    <t>Attribution required</t>
+  </si>
+  <si>
+    <t>Singlar </t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>8.42kb</t>
+  </si>
+  <si>
+    <t>200px x 200px</t>
+  </si>
+  <si>
+    <t>73fd49caf4f14b6183f93333358f1a84</t>
+  </si>
+  <si>
+    <t>original images</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/The+Myer+Centre+in+the+Queen+Street+Mall+Level+1,+Shop+number+36/@-27.4701393,153.0228728,17z/data=!3m1!4b1</t>
+  </si>
+  <si>
+    <t>432px x 319px</t>
+  </si>
+  <si>
+    <t>Google Terms of Service</t>
+  </si>
+  <si>
+    <t>Free to use / Free to Annotate</t>
+  </si>
+  <si>
+    <t>Trademark</t>
+  </si>
+  <si>
+    <t>57.4kb</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Resize, Crop, Composite</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>Composite</t>
+  </si>
+  <si>
+    <t>Resize, Crop</t>
+  </si>
+  <si>
+    <t>Resize</t>
+  </si>
+  <si>
+    <t>All pages</t>
+  </si>
+  <si>
+    <t>about-us.html</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>contact-us.html</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>1920px x 200px</t>
+  </si>
+  <si>
+    <t>96.2kb</t>
+  </si>
+  <si>
+    <t>glasses-girl</t>
+  </si>
+  <si>
+    <t>glasses-guy</t>
+  </si>
+  <si>
+    <t>smiling-grandma</t>
+  </si>
+  <si>
+    <t>amanda-b-cormer</t>
+  </si>
+  <si>
+    <t>200px x 250px</t>
+  </si>
+  <si>
+    <t>200px x 240px</t>
+  </si>
+  <si>
+    <t>200px x 300px</t>
+  </si>
+  <si>
+    <t>29.5kb</t>
+  </si>
+  <si>
+    <t>41.7kb</t>
+  </si>
+  <si>
+    <t>19kb</t>
+  </si>
+  <si>
+    <t>27.9kb</t>
   </si>
 </sst>
 </file>
@@ -623,7 +749,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,14 +851,30 @@
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -762,14 +904,30 @@
       <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -799,14 +957,30 @@
       <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -836,14 +1010,30 @@
       <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -873,52 +1063,136 @@
       <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
